--- a/results/RMR results/lmer_main_effect_m_basin_season.xlsx
+++ b/results/RMR results/lmer_main_effect_m_basin_season.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.109666406989279</v>
+        <v>0.109730661886371</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.946643031535387</v>
+        <v>0.946612618798644</v>
       </c>
     </row>
     <row r="3">
@@ -397,13 +397,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>878.219791368427</v>
+        <v>878.218775588299</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000469062486815468</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000469300508710797</v>
       </c>
     </row>
     <row r="4">
@@ -411,13 +411,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>121.712062721498</v>
+        <v>121.712022017074</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00000000000000000000000711883603978788</v>
+        <v>0.00000000000000000000000711897624189488</v>
       </c>
     </row>
   </sheetData>
